--- a/documentation/306_Journal_travail_ArcardiaBox_DA_SILVA_DIOGO.xlsx
+++ b/documentation/306_Journal_travail_ArcardiaBox_DA_SILVA_DIOGO.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
   <workbookPr checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daSilvaD05\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\306-DaSilva\306-project-groupe-2-3\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{372FA893-DD73-41A0-9F24-91BE741C0E6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40536E47-3BAE-468D-AE8F-BF74FF70AED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="25">
   <si>
     <t>Problème</t>
   </si>
@@ -116,6 +116,27 @@
   </si>
   <si>
     <t>j'ai perdu un peu de temp à afficher le navigateur mais au final ça à marcher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reconfigurer Raspberry Pi </t>
+  </si>
+  <si>
+    <t>testes des perforamances des jeux</t>
+  </si>
+  <si>
+    <t>changement de l'os et reconfiguration</t>
+  </si>
+  <si>
+    <t>script du lancement automatiques des jeux</t>
+  </si>
+  <si>
+    <t>testes des mannettes</t>
+  </si>
+  <si>
+    <t>Diagramme d'activité</t>
+  </si>
+  <si>
+    <t>j'ai perdu du temps à reconfigurer le raspberry pour au final remarqué que les jeux n'estais pas fluide j'ai donc du changer d'os</t>
   </si>
 </sst>
 </file>
@@ -456,7 +477,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -599,6 +620,22 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -1147,10 +1184,10 @@
   <dimension ref="A1:I76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E23" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="E34" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="A33" sqref="A33:D33"/>
+      <selection pane="bottomRight" activeCell="A47" sqref="A47:D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1167,20 +1204,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
     </row>
     <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
       <c r="H2" s="15"/>
       <c r="I2" s="1" t="s">
         <v>0</v>
@@ -1193,13 +1230,13 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="41"/>
+      <c r="C4" s="45"/>
       <c r="D4" s="4" t="s">
         <v>4</v>
       </c>
@@ -1209,9 +1246,9 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="42"/>
-      <c r="B5" s="42"/>
-      <c r="C5" s="43"/>
+      <c r="A5" s="46"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="47"/>
       <c r="D5" s="5" t="s">
         <v>6</v>
       </c>
@@ -1221,11 +1258,11 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="47">
+      <c r="A6" s="51">
         <v>45992</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="45"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="49"/>
       <c r="D6" s="6"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -1255,9 +1292,13 @@
       <c r="A10" s="17">
         <v>45992</v>
       </c>
-      <c r="B10" s="19"/>
+      <c r="B10" s="19" t="s">
+        <v>23</v>
+      </c>
       <c r="C10" s="20"/>
-      <c r="D10" s="6"/>
+      <c r="D10" s="6">
+        <v>2</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="18"/>
@@ -1279,16 +1320,20 @@
       </c>
       <c r="D13" s="8">
         <f>SUM(D10:D12)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="17">
         <v>45993</v>
       </c>
-      <c r="B14" s="19"/>
+      <c r="B14" s="19" t="s">
+        <v>23</v>
+      </c>
       <c r="C14" s="20"/>
-      <c r="D14" s="6"/>
+      <c r="D14" s="6">
+        <v>2</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="18"/>
@@ -1310,7 +1355,7 @@
       </c>
       <c r="D17" s="8">
         <f>SUM(D14:D16)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -1323,7 +1368,7 @@
       </c>
       <c r="D18" s="11">
         <f>SUM(D9,D13,D17)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.2">
@@ -1462,21 +1507,33 @@
       <c r="A34" s="31">
         <v>46006</v>
       </c>
-      <c r="B34" s="19"/>
+      <c r="B34" s="19" t="s">
+        <v>18</v>
+      </c>
       <c r="C34" s="20"/>
-      <c r="D34" s="7"/>
+      <c r="D34" s="7">
+        <v>2</v>
+      </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="18"/>
-      <c r="B35" s="21"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="7"/>
+      <c r="B35" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" s="39"/>
+      <c r="D35" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="18"/>
-      <c r="B36" s="21"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="7"/>
+      <c r="B36" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="C36" s="41"/>
+      <c r="D36" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="18"/>
@@ -1486,28 +1543,40 @@
       </c>
       <c r="D37" s="8">
         <f>SUM(D34:D36)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="17">
         <v>46006</v>
       </c>
-      <c r="B38" s="19"/>
+      <c r="B38" s="19" t="s">
+        <v>19</v>
+      </c>
       <c r="C38" s="20"/>
-      <c r="D38" s="6"/>
+      <c r="D38" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="18"/>
-      <c r="B39" s="21"/>
+      <c r="B39" s="21" t="s">
+        <v>21</v>
+      </c>
       <c r="C39" s="22"/>
-      <c r="D39" s="7"/>
+      <c r="D39" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="18"/>
-      <c r="B40" s="21"/>
+      <c r="B40" s="21" t="s">
+        <v>22</v>
+      </c>
       <c r="C40" s="22"/>
-      <c r="D40" s="7"/>
+      <c r="D40" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="18"/>
@@ -1517,7 +1586,7 @@
       </c>
       <c r="D41" s="8">
         <f>SUM(D38:D40)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1561,11 +1630,13 @@
       </c>
       <c r="D46" s="11">
         <f>SUM(D37,D41,D45)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="28"/>
+      <c r="A47" s="28" t="s">
+        <v>24</v>
+      </c>
       <c r="B47" s="29"/>
       <c r="C47" s="29"/>
       <c r="D47" s="30"/>
@@ -1794,7 +1865,7 @@
       </c>
       <c r="D76" s="9">
         <f>D18+D32+D46+D60+D74</f>
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/306_Journal_travail_ArcardiaBox_DA_SILVA_DIOGO.xlsx
+++ b/documentation/306_Journal_travail_ArcardiaBox_DA_SILVA_DIOGO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\306-DaSilva\306-project-groupe-2-3\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40536E47-3BAE-468D-AE8F-BF74FF70AED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{290A9629-7653-451A-AE11-04DC0E63E419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="28">
   <si>
     <t>Problème</t>
   </si>
@@ -137,6 +137,15 @@
   </si>
   <si>
     <t>j'ai perdu du temps à reconfigurer le raspberry pour au final remarqué que les jeux n'estais pas fluide j'ai donc du changer d'os</t>
+  </si>
+  <si>
+    <t>documentation</t>
+  </si>
+  <si>
+    <t>testes des potentiel bug des jeux</t>
+  </si>
+  <si>
+    <t>pull des changements</t>
   </si>
 </sst>
 </file>
@@ -562,6 +571,62 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -570,6 +635,46 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -580,102 +685,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1184,10 +1193,10 @@
   <dimension ref="A1:I76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E34" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="E33" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="A47" sqref="A47:D47"/>
+      <selection pane="bottomRight" activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1204,20 +1213,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
     </row>
     <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
       <c r="H2" s="15"/>
       <c r="I2" s="1" t="s">
         <v>0</v>
@@ -1230,13 +1239,13 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="45"/>
+      <c r="C4" s="27"/>
       <c r="D4" s="4" t="s">
         <v>4</v>
       </c>
@@ -1246,9 +1255,9 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="46"/>
-      <c r="B5" s="46"/>
-      <c r="C5" s="47"/>
+      <c r="A5" s="28"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="29"/>
       <c r="D5" s="5" t="s">
         <v>6</v>
       </c>
@@ -1258,11 +1267,11 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="51">
+      <c r="A6" s="23">
         <v>45992</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="49"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="31"/>
       <c r="D6" s="6"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -1359,10 +1368,10 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="24"/>
+      <c r="B18" s="38"/>
       <c r="C18" s="10" t="s">
         <v>10</v>
       </c>
@@ -1372,31 +1381,31 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="28"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="30"/>
+      <c r="A19" s="39"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="41"/>
     </row>
     <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="18">
         <v>45999</v>
       </c>
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="33"/>
+      <c r="C20" s="43"/>
       <c r="D20" s="7"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="18"/>
-      <c r="B21" s="34"/>
-      <c r="C21" s="35"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="45"/>
       <c r="D21" s="7"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="18"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="37"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="47"/>
       <c r="D22" s="7"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -1414,22 +1423,22 @@
       <c r="A24" s="17">
         <v>45999</v>
       </c>
-      <c r="B24" s="32" t="s">
+      <c r="B24" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="33"/>
+      <c r="C24" s="43"/>
       <c r="D24" s="6"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="18"/>
-      <c r="B25" s="34"/>
-      <c r="C25" s="35"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="45"/>
       <c r="D25" s="7"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="18"/>
-      <c r="B26" s="36"/>
-      <c r="C26" s="37"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="47"/>
       <c r="D26" s="7"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -1483,10 +1492,10 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="23" t="s">
+      <c r="A32" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B32" s="24"/>
+      <c r="B32" s="38"/>
       <c r="C32" s="10" t="s">
         <v>10</v>
       </c>
@@ -1496,15 +1505,15 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="28" t="s">
+      <c r="A33" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="B33" s="29"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="30"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="41"/>
     </row>
     <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="31">
+      <c r="A34" s="48">
         <v>46006</v>
       </c>
       <c r="B34" s="19" t="s">
@@ -1517,20 +1526,20 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="18"/>
-      <c r="B35" s="38" t="s">
+      <c r="B35" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="C35" s="39"/>
+      <c r="C35" s="34"/>
       <c r="D35" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="18"/>
-      <c r="B36" s="40" t="s">
+      <c r="B36" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="C36" s="41"/>
+      <c r="C36" s="36"/>
       <c r="D36" s="7">
         <v>1</v>
       </c>
@@ -1593,21 +1602,33 @@
       <c r="A42" s="17">
         <v>46007</v>
       </c>
-      <c r="B42" s="19"/>
+      <c r="B42" s="19" t="s">
+        <v>27</v>
+      </c>
       <c r="C42" s="20"/>
-      <c r="D42" s="6"/>
+      <c r="D42" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="18"/>
-      <c r="B43" s="21"/>
+      <c r="B43" s="21" t="s">
+        <v>25</v>
+      </c>
       <c r="C43" s="22"/>
-      <c r="D43" s="7"/>
+      <c r="D43" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="18"/>
-      <c r="B44" s="21"/>
+      <c r="B44" s="21" t="s">
+        <v>26</v>
+      </c>
       <c r="C44" s="22"/>
-      <c r="D44" s="7"/>
+      <c r="D44" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="18"/>
@@ -1617,29 +1638,29 @@
       </c>
       <c r="D45" s="8">
         <f>SUM(D42:D44)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="23" t="s">
+      <c r="A46" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B46" s="24"/>
+      <c r="B46" s="38"/>
       <c r="C46" s="10" t="s">
         <v>10</v>
       </c>
       <c r="D46" s="11">
         <f>SUM(D37,D41,D45)</f>
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="28" t="s">
+      <c r="A47" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="B47" s="29"/>
-      <c r="C47" s="29"/>
-      <c r="D47" s="30"/>
+      <c r="B47" s="40"/>
+      <c r="C47" s="40"/>
+      <c r="D47" s="41"/>
     </row>
     <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="18">
@@ -1735,10 +1756,10 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="23" t="s">
+      <c r="A60" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B60" s="24"/>
+      <c r="B60" s="38"/>
       <c r="C60" s="10" t="s">
         <v>10</v>
       </c>
@@ -1748,10 +1769,10 @@
       </c>
     </row>
     <row r="61" spans="1:4" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="25"/>
-      <c r="B61" s="26"/>
-      <c r="C61" s="26"/>
-      <c r="D61" s="27"/>
+      <c r="A61" s="49"/>
+      <c r="B61" s="50"/>
+      <c r="C61" s="50"/>
+      <c r="D61" s="51"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="18">
@@ -1847,10 +1868,10 @@
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="23" t="s">
+      <c r="A74" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B74" s="24"/>
+      <c r="B74" s="38"/>
       <c r="C74" s="10" t="s">
         <v>10</v>
       </c>
@@ -1865,57 +1886,24 @@
       </c>
       <c r="D76" s="9">
         <f>D18+D32+D46+D60+D74</f>
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B4:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B20:C22"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B24:C26"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A48:A51"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="A70:A73"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A62:A65"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="A66:A69"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B66:C66"/>
     <mergeCell ref="A60:B60"/>
     <mergeCell ref="A61:D61"/>
     <mergeCell ref="A52:A55"/>
@@ -1926,19 +1914,52 @@
     <mergeCell ref="B56:C56"/>
     <mergeCell ref="B57:C57"/>
     <mergeCell ref="B58:C58"/>
-    <mergeCell ref="A62:A65"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="A66:A69"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="A70:A73"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A48:A51"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B24:C26"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B20:C22"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="A6:A9"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:D17">
     <cfRule type="containsText" dxfId="11" priority="31" operator="containsText" text="Terminé">
@@ -2069,6 +2090,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100280ED870E36F6F4C976CEAC6988F82A5" ma:contentTypeVersion="37" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="3169f06de23f2334ced166a676265d3f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xmlns:ns3="5cbbe46b-cb1d-4e56-8c99-5e3dbfb293e5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="eab9665bb0af9cfdaba242b84d69e760" ns2:_="" ns3:_="">
     <xsd:import namespace="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea"/>
@@ -2505,15 +2535,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A574440-4762-4322-B305-C51AEF435DC1}">
   <ds:schemaRefs>
@@ -2526,6 +2547,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34A0F71E-9B9F-4628-8A94-D320BA80A1D3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA445AE9-3816-4E66-9DE6-AF42B0662460}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2542,12 +2571,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34A0F71E-9B9F-4628-8A94-D320BA80A1D3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/documentation/306_Journal_travail_ArcardiaBox_DA_SILVA_DIOGO.xlsx
+++ b/documentation/306_Journal_travail_ArcardiaBox_DA_SILVA_DIOGO.xlsx
@@ -5,19 +5,19 @@
   <workbookPr checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\306-DaSilva\306-project-groupe-2-3\documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\306-project-groupe-2\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{290A9629-7653-451A-AE11-04DC0E63E419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{015C5A13-A282-4BAC-8F9F-82A34FDDE32E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal" sheetId="8" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Journal!$B:$D,Journal!$1:$5</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Journal!$A$1:$D$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Journal!$A$1:$D$57</definedName>
   </definedNames>
   <calcPr calcId="191028" concurrentCalc="0"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="28">
   <si>
     <t>Problème</t>
   </si>
@@ -257,7 +257,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -287,19 +287,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom style="medium">
         <color indexed="64"/>
@@ -344,17 +331,6 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top/>
       <bottom style="medium">
         <color indexed="64"/>
@@ -390,17 +366,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -486,32 +451,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -523,7 +488,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -547,32 +512,104 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -583,108 +620,24 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1190,13 +1143,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I76"/>
+  <dimension ref="A1:I72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E33" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="E6" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="E43" sqref="E43"/>
+      <selection pane="bottomRight" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1213,20 +1166,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
     </row>
     <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
       <c r="H2" s="15"/>
       <c r="I2" s="1" t="s">
         <v>0</v>
@@ -1239,13 +1192,13 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="27"/>
+      <c r="C4" s="45"/>
       <c r="D4" s="4" t="s">
         <v>4</v>
       </c>
@@ -1255,9 +1208,9 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="28"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="29"/>
+      <c r="A5" s="46"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="47"/>
       <c r="D5" s="5" t="s">
         <v>6</v>
       </c>
@@ -1267,12 +1220,16 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="23">
+      <c r="A6" s="17">
         <v>45992</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="6"/>
+      <c r="B6" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="20"/>
+      <c r="D6" s="6">
+        <v>2</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="18"/>
@@ -1294,12 +1251,12 @@
       </c>
       <c r="D9" s="8">
         <f>SUM(D6:D8)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="17">
-        <v>45992</v>
+        <v>45993</v>
       </c>
       <c r="B10" s="19" t="s">
         <v>23</v>
@@ -1332,80 +1289,78 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="17">
-        <v>45993</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="18"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="7"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="18"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="22"/>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="24"/>
+      <c r="C14" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="11">
+        <f>SUM(D9,D13)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="28"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="30"/>
+    </row>
+    <row r="16" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="18">
+        <v>45999</v>
+      </c>
+      <c r="B16" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="33"/>
       <c r="D16" s="7"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="18"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="3" t="s">
+      <c r="B17" s="34"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="7"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="18"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="7"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="18"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="8">
-        <f>SUM(D14:D16)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="38"/>
-      <c r="C18" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="11">
-        <f>SUM(D9,D13,D17)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="39"/>
-      <c r="B19" s="40"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="41"/>
+      <c r="D19" s="8">
+        <f>SUM(D16:D18)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="18">
+      <c r="A20" s="17">
         <v>45999</v>
       </c>
-      <c r="B20" s="42" t="s">
+      <c r="B20" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="43"/>
-      <c r="D20" s="7"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="6"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="18"/>
-      <c r="B21" s="44"/>
-      <c r="C21" s="45"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="35"/>
       <c r="D21" s="7"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="18"/>
-      <c r="B22" s="46"/>
-      <c r="C22" s="47"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="37"/>
       <c r="D22" s="7"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -1421,24 +1376,30 @@
     </row>
     <row r="24" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="17">
-        <v>45999</v>
-      </c>
-      <c r="B24" s="42" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" s="43"/>
-      <c r="D24" s="6"/>
+        <v>46000</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="20"/>
+      <c r="D24" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="18"/>
-      <c r="B25" s="44"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="7"/>
+      <c r="B25" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="22"/>
+      <c r="D25" s="7">
+        <v>3</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="18"/>
-      <c r="B26" s="46"/>
-      <c r="C26" s="47"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="22"/>
       <c r="D26" s="7"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -1449,97 +1410,101 @@
       </c>
       <c r="D27" s="8">
         <f>SUM(D24:D26)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="17">
-        <v>46000</v>
-      </c>
-      <c r="B28" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="C28" s="20"/>
-      <c r="D28" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="18"/>
-      <c r="B29" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="C29" s="22"/>
-      <c r="D29" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="18"/>
-      <c r="B30" s="21"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="7"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" s="24"/>
+      <c r="C28" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="11">
+        <f>SUM(D19,D23,D27)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="30"/>
+    </row>
+    <row r="30" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="31">
+        <v>46006</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" s="20"/>
+      <c r="D30" s="7">
+        <v>2</v>
+      </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="18"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="3" t="s">
+      <c r="B31" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="39"/>
+      <c r="D31" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="18"/>
+      <c r="B32" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" s="41"/>
+      <c r="D32" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="18"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D31" s="8">
-        <f>SUM(D28:D30)</f>
+      <c r="D33" s="8">
+        <f>SUM(D30:D32)</f>
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="B32" s="38"/>
-      <c r="C32" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D32" s="11">
-        <f>SUM(D23,D27,D31)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="B33" s="40"/>
-      <c r="C33" s="40"/>
-      <c r="D33" s="41"/>
-    </row>
     <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="48">
+      <c r="A34" s="17">
         <v>46006</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C34" s="20"/>
-      <c r="D34" s="7">
-        <v>2</v>
+      <c r="D34" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="18"/>
-      <c r="B35" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="C35" s="34"/>
+      <c r="B35" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" s="22"/>
       <c r="D35" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="18"/>
-      <c r="B36" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="C36" s="36"/>
+      <c r="B36" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C36" s="22"/>
       <c r="D36" s="7">
         <v>1</v>
       </c>
@@ -1552,15 +1517,15 @@
       </c>
       <c r="D37" s="8">
         <f>SUM(D34:D36)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="17">
-        <v>46006</v>
+        <v>46007</v>
       </c>
       <c r="B38" s="19" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C38" s="20"/>
       <c r="D38" s="6">
@@ -1570,7 +1535,7 @@
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="18"/>
       <c r="B39" s="21" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C39" s="22"/>
       <c r="D39" s="7">
@@ -1580,7 +1545,7 @@
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="18"/>
       <c r="B40" s="21" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C40" s="22"/>
       <c r="D40" s="7">
@@ -1598,77 +1563,65 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="17">
-        <v>46007</v>
-      </c>
-      <c r="B42" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="C42" s="20"/>
-      <c r="D42" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="18"/>
-      <c r="B43" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C43" s="22"/>
-      <c r="D43" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="18"/>
-      <c r="B44" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C44" s="22"/>
-      <c r="D44" s="7">
-        <v>1</v>
-      </c>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B42" s="24"/>
+      <c r="C42" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42" s="11">
+        <f>SUM(D33,D37,D41)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B43" s="29"/>
+      <c r="C43" s="29"/>
+      <c r="D43" s="30"/>
+    </row>
+    <row r="44" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="18">
+        <v>45662</v>
+      </c>
+      <c r="B44" s="19"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="7"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="18"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="3" t="s">
+      <c r="B45" s="21"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="7"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="18"/>
+      <c r="B46" s="21"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="7"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="18"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D45" s="8">
-        <f>SUM(D42:D44)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="B46" s="38"/>
-      <c r="C46" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D46" s="11">
-        <f>SUM(D37,D41,D45)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="B47" s="40"/>
-      <c r="C47" s="40"/>
-      <c r="D47" s="41"/>
-    </row>
-    <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="18">
+      <c r="D47" s="8">
+        <f>SUM(D44:D46)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="17">
         <v>45662</v>
       </c>
       <c r="B48" s="19"/>
       <c r="C48" s="20"/>
-      <c r="D48" s="7"/>
+      <c r="D48" s="6"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="18"/>
@@ -1693,9 +1646,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="17">
-        <v>45662</v>
+        <v>45663</v>
       </c>
       <c r="B52" s="19"/>
       <c r="C52" s="20"/>
@@ -1724,63 +1677,63 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="17">
-        <v>45663</v>
-      </c>
-      <c r="B56" s="19"/>
-      <c r="C56" s="20"/>
-      <c r="D56" s="6"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="18"/>
-      <c r="B57" s="21"/>
-      <c r="C57" s="22"/>
-      <c r="D57" s="7"/>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B56" s="24"/>
+      <c r="C56" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D56" s="11">
+        <f>SUM(D47,D51,D55)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="25"/>
+      <c r="B57" s="26"/>
+      <c r="C57" s="26"/>
+      <c r="D57" s="27"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="18"/>
+      <c r="A58" s="18">
+        <v>45669</v>
+      </c>
       <c r="B58" s="21"/>
       <c r="C58" s="22"/>
       <c r="D58" s="7"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="18"/>
-      <c r="B59" s="2"/>
-      <c r="C59" s="3" t="s">
+      <c r="B59" s="21"/>
+      <c r="C59" s="22"/>
+      <c r="D59" s="7"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="18"/>
+      <c r="B60" s="21"/>
+      <c r="C60" s="22"/>
+      <c r="D60" s="7"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="18"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D59" s="8">
-        <f>SUM(D56:D58)</f>
+      <c r="D61" s="8">
+        <f>SUM(D58:D60)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="B60" s="38"/>
-      <c r="C60" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D60" s="11">
-        <f>SUM(D51,D55,D59)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="49"/>
-      <c r="B61" s="50"/>
-      <c r="C61" s="50"/>
-      <c r="D61" s="51"/>
-    </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="18">
+      <c r="A62" s="17">
         <v>45669</v>
       </c>
-      <c r="B62" s="21"/>
-      <c r="C62" s="22"/>
-      <c r="D62" s="7"/>
+      <c r="B62" s="19"/>
+      <c r="C62" s="20"/>
+      <c r="D62" s="6"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="18"/>
@@ -1807,7 +1760,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="17">
-        <v>45669</v>
+        <v>45670</v>
       </c>
       <c r="B66" s="19"/>
       <c r="C66" s="20"/>
@@ -1837,131 +1790,96 @@
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="17">
-        <v>45670</v>
-      </c>
-      <c r="B70" s="19"/>
-      <c r="C70" s="20"/>
-      <c r="D70" s="6"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="18"/>
-      <c r="B71" s="21"/>
-      <c r="C71" s="22"/>
-      <c r="D71" s="7"/>
+      <c r="A70" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B70" s="24"/>
+      <c r="C70" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D70" s="11">
+        <f>SUM(D61,D65,D69)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="18"/>
-      <c r="B72" s="21"/>
-      <c r="C72" s="22"/>
-      <c r="D72" s="7"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="18"/>
-      <c r="B73" s="2"/>
-      <c r="C73" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D73" s="8">
-        <f>SUM(D70:D72)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="B74" s="38"/>
-      <c r="C74" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D74" s="11">
-        <f>SUM(D65,D69,D73)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C76" s="12" t="s">
+      <c r="C72" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D76" s="9">
-        <f>D18+D32+D46+D60+D74</f>
+      <c r="D72" s="9">
+        <f>D14+D28+D42+D56+D70</f>
         <v>18</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="69">
-    <mergeCell ref="A70:A73"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A62:A65"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="A66:A69"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A61:D61"/>
+  <mergeCells count="65">
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B16:C18"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B20:C22"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A48:A51"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
     <mergeCell ref="A52:A55"/>
     <mergeCell ref="B52:C52"/>
     <mergeCell ref="B53:C53"/>
     <mergeCell ref="B54:C54"/>
-    <mergeCell ref="A56:A59"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="A58:A61"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="A62:A65"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
     <mergeCell ref="B58:C58"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A48:A51"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B24:C26"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B20:C22"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B4:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="A66:A69"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="A70:B70"/>
   </mergeCells>
-  <conditionalFormatting sqref="D6:D17">
+  <conditionalFormatting sqref="D6:D13">
     <cfRule type="containsText" dxfId="11" priority="31" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",D6)))</formula>
     </cfRule>
@@ -1969,44 +1887,44 @@
       <formula>NOT(ISERROR(SEARCH("En cours",D6)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D20:D31">
+  <conditionalFormatting sqref="D16:D27">
     <cfRule type="containsText" dxfId="9" priority="7" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D20)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Terminé",D16)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="8" priority="8" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D20)))</formula>
+      <formula>NOT(ISERROR(SEARCH("En cours",D16)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D34:D45">
+  <conditionalFormatting sqref="D30:D41">
     <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D34)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Terminé",D30)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D34)))</formula>
+      <formula>NOT(ISERROR(SEARCH("En cours",D30)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D48:D59">
+  <conditionalFormatting sqref="D44:D55">
     <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D48)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Terminé",D44)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D48)))</formula>
+      <formula>NOT(ISERROR(SEARCH("En cours",D44)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D62:D73">
+  <conditionalFormatting sqref="D58:D69">
     <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D62)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Terminé",D58)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D62)))</formula>
+      <formula>NOT(ISERROR(SEARCH("En cours",D58)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D76">
+  <conditionalFormatting sqref="D72">
     <cfRule type="containsText" dxfId="1" priority="9" operator="containsText" text="Terminé">
-      <formula>NOT(ISERROR(SEARCH("Terminé",D76)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Terminé",D72)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="0" priority="10" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",D76)))</formula>
+      <formula>NOT(ISERROR(SEARCH("En cours",D72)))</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions horizontalCentered="1"/>
@@ -2018,7 +1936,7 @@
     <oddFooter>&amp;L&amp;8&amp;F&amp;R&amp;8Page &amp;P/&amp;N</oddFooter>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="33" max="3" man="1"/>
+    <brk id="29" max="3" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
@@ -2090,15 +2008,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100280ED870E36F6F4C976CEAC6988F82A5" ma:contentTypeVersion="37" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="3169f06de23f2334ced166a676265d3f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xmlns:ns3="5cbbe46b-cb1d-4e56-8c99-5e3dbfb293e5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="eab9665bb0af9cfdaba242b84d69e760" ns2:_="" ns3:_="">
     <xsd:import namespace="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea"/>
@@ -2535,6 +2444,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A574440-4762-4322-B305-C51AEF435DC1}">
   <ds:schemaRefs>
@@ -2547,14 +2465,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34A0F71E-9B9F-4628-8A94-D320BA80A1D3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA445AE9-3816-4E66-9DE6-AF42B0662460}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2571,4 +2481,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34A0F71E-9B9F-4628-8A94-D320BA80A1D3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/documentation/306_Journal_travail_ArcardiaBox_DA_SILVA_DIOGO.xlsx
+++ b/documentation/306_Journal_travail_ArcardiaBox_DA_SILVA_DIOGO.xlsx
@@ -5,12 +5,12 @@
   <workbookPr checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\306-project-groupe-2\documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\306-DaSilva\306-project-groupe-2-3\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{015C5A13-A282-4BAC-8F9F-82A34FDDE32E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C94AB351-F53D-4842-9C8C-CBF72FBFF0E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal" sheetId="8" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="34">
   <si>
     <t>Problème</t>
   </si>
@@ -146,6 +146,24 @@
   </si>
   <si>
     <t>pull des changements</t>
+  </si>
+  <si>
+    <t>installation Raspberry Pi</t>
+  </si>
+  <si>
+    <t>documentation d'installation</t>
+  </si>
+  <si>
+    <t>documentation d'utilisation</t>
+  </si>
+  <si>
+    <t>vérifier l'ergonomie</t>
+  </si>
+  <si>
+    <t>Lecture du cahier des charges</t>
+  </si>
+  <si>
+    <t>Discussion du projet</t>
   </si>
 </sst>
 </file>
@@ -257,7 +275,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -447,11 +465,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -536,6 +576,50 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -544,6 +628,46 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -556,88 +680,12 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1145,11 +1193,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <pane xSplit="4" ySplit="5" topLeftCell="E6" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="G11" sqref="G11"/>
+      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1166,20 +1214,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
     </row>
     <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
       <c r="H2" s="15"/>
       <c r="I2" s="1" t="s">
         <v>0</v>
@@ -1192,13 +1240,13 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="45"/>
+      <c r="C4" s="26"/>
       <c r="D4" s="4" t="s">
         <v>4</v>
       </c>
@@ -1208,9 +1256,9 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="46"/>
-      <c r="B5" s="46"/>
-      <c r="C5" s="47"/>
+      <c r="A5" s="27"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="28"/>
       <c r="D5" s="5" t="s">
         <v>6</v>
       </c>
@@ -1219,7 +1267,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="17">
         <v>45992</v>
       </c>
@@ -1233,15 +1281,23 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="18"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="7"/>
+      <c r="B7" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="50"/>
+      <c r="D7" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="18"/>
-      <c r="B8" s="21"/>
+      <c r="B8" s="21" t="s">
+        <v>33</v>
+      </c>
       <c r="C8" s="22"/>
-      <c r="D8" s="7"/>
+      <c r="D8" s="7">
+        <v>2</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="18"/>
@@ -1251,7 +1307,7 @@
       </c>
       <c r="D9" s="8">
         <f>SUM(D6:D8)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1290,44 +1346,44 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="24"/>
+      <c r="B14" s="35"/>
       <c r="C14" s="10" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="11">
         <f>SUM(D9,D13)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="28"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="30"/>
+      <c r="A15" s="36"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="38"/>
     </row>
     <row r="16" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="18">
         <v>45999</v>
       </c>
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="33"/>
+      <c r="C16" s="40"/>
       <c r="D16" s="7"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="18"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="35"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="42"/>
       <c r="D17" s="7"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="18"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="37"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="44"/>
       <c r="D18" s="7"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -1345,22 +1401,22 @@
       <c r="A20" s="17">
         <v>45999</v>
       </c>
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="33"/>
+      <c r="C20" s="40"/>
       <c r="D20" s="6"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="18"/>
-      <c r="B21" s="34"/>
-      <c r="C21" s="35"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="42"/>
       <c r="D21" s="7"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="18"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="37"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="44"/>
       <c r="D22" s="7"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -1414,10 +1470,10 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="23" t="s">
+      <c r="A28" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="24"/>
+      <c r="B28" s="35"/>
       <c r="C28" s="10" t="s">
         <v>10</v>
       </c>
@@ -1427,15 +1483,15 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="28" t="s">
+      <c r="A29" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="30"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="38"/>
     </row>
     <row r="30" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="31">
+      <c r="A30" s="45">
         <v>46006</v>
       </c>
       <c r="B30" s="19" t="s">
@@ -1448,20 +1504,20 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="18"/>
-      <c r="B31" s="38" t="s">
+      <c r="B31" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="C31" s="39"/>
+      <c r="C31" s="31"/>
       <c r="D31" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="18"/>
-      <c r="B32" s="40" t="s">
+      <c r="B32" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="C32" s="41"/>
+      <c r="C32" s="33"/>
       <c r="D32" s="7">
         <v>1</v>
       </c>
@@ -1564,10 +1620,10 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="23" t="s">
+      <c r="A42" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="B42" s="24"/>
+      <c r="B42" s="35"/>
       <c r="C42" s="10" t="s">
         <v>10</v>
       </c>
@@ -1577,26 +1633,34 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="28" t="s">
+      <c r="A43" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="B43" s="29"/>
-      <c r="C43" s="29"/>
-      <c r="D43" s="30"/>
+      <c r="B43" s="37"/>
+      <c r="C43" s="37"/>
+      <c r="D43" s="38"/>
     </row>
     <row r="44" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="18">
         <v>45662</v>
       </c>
-      <c r="B44" s="19"/>
+      <c r="B44" s="19" t="s">
+        <v>28</v>
+      </c>
       <c r="C44" s="20"/>
-      <c r="D44" s="7"/>
+      <c r="D44" s="7">
+        <v>2</v>
+      </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="18"/>
-      <c r="B45" s="21"/>
+      <c r="B45" s="21" t="s">
+        <v>29</v>
+      </c>
       <c r="C45" s="22"/>
-      <c r="D45" s="7"/>
+      <c r="D45" s="7">
+        <v>2</v>
+      </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="18"/>
@@ -1612,22 +1676,30 @@
       </c>
       <c r="D47" s="8">
         <f>SUM(D44:D46)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="17">
         <v>45662</v>
       </c>
-      <c r="B48" s="19"/>
+      <c r="B48" s="19" t="s">
+        <v>30</v>
+      </c>
       <c r="C48" s="20"/>
-      <c r="D48" s="6"/>
+      <c r="D48" s="6">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="18"/>
-      <c r="B49" s="21"/>
+      <c r="B49" s="21" t="s">
+        <v>31</v>
+      </c>
       <c r="C49" s="22"/>
-      <c r="D49" s="7"/>
+      <c r="D49" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="18"/>
@@ -1643,7 +1715,7 @@
       </c>
       <c r="D51" s="8">
         <f>SUM(D48:D50)</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1678,23 +1750,23 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="23" t="s">
+      <c r="A56" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="B56" s="24"/>
+      <c r="B56" s="35"/>
       <c r="C56" s="10" t="s">
         <v>10</v>
       </c>
       <c r="D56" s="11">
         <f>SUM(D47,D51,D55)</f>
-        <v>0</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="25"/>
-      <c r="B57" s="26"/>
-      <c r="C57" s="26"/>
-      <c r="D57" s="27"/>
+      <c r="A57" s="46"/>
+      <c r="B57" s="47"/>
+      <c r="C57" s="47"/>
+      <c r="D57" s="48"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="18">
@@ -1790,10 +1862,10 @@
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="23" t="s">
+      <c r="A70" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="B70" s="24"/>
+      <c r="B70" s="35"/>
       <c r="C70" s="10" t="s">
         <v>10</v>
       </c>
@@ -1808,53 +1880,24 @@
       </c>
       <c r="D72" s="9">
         <f>D14+D28+D42+D56+D70</f>
-        <v>18</v>
+        <v>27.5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B4:C5"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B16:C18"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B20:C22"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="A44:A47"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="A66:A69"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A58:A61"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="A62:A65"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B62:C62"/>
     <mergeCell ref="A56:B56"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A48:A51"/>
@@ -1865,19 +1908,48 @@
     <mergeCell ref="B52:C52"/>
     <mergeCell ref="B53:C53"/>
     <mergeCell ref="B54:C54"/>
-    <mergeCell ref="A58:A61"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="A62:A65"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="A66:A69"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B20:C22"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B16:C18"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A2:D2"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:D13">
     <cfRule type="containsText" dxfId="11" priority="31" operator="containsText" text="Terminé">
@@ -2008,6 +2080,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100280ED870E36F6F4C976CEAC6988F82A5" ma:contentTypeVersion="37" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="3169f06de23f2334ced166a676265d3f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xmlns:ns3="5cbbe46b-cb1d-4e56-8c99-5e3dbfb293e5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="eab9665bb0af9cfdaba242b84d69e760" ns2:_="" ns3:_="">
     <xsd:import namespace="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea"/>
@@ -2444,15 +2525,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A574440-4762-4322-B305-C51AEF435DC1}">
   <ds:schemaRefs>
@@ -2465,6 +2537,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34A0F71E-9B9F-4628-8A94-D320BA80A1D3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA445AE9-3816-4E66-9DE6-AF42B0662460}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2481,12 +2561,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34A0F71E-9B9F-4628-8A94-D320BA80A1D3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/documentation/306_Journal_travail_ArcardiaBox_DA_SILVA_DIOGO.xlsx
+++ b/documentation/306_Journal_travail_ArcardiaBox_DA_SILVA_DIOGO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\306-DaSilva\306-project-groupe-2-3\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C94AB351-F53D-4842-9C8C-CBF72FBFF0E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A749EFFA-DDC4-4F73-99B3-4ABA2942F518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="35">
   <si>
     <t>Problème</t>
   </si>
@@ -164,6 +164,9 @@
   </si>
   <si>
     <t>Discussion du projet</t>
+  </si>
+  <si>
+    <t>création du script d'installation automatique</t>
   </si>
 </sst>
 </file>
@@ -576,6 +579,90 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -602,90 +689,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1194,10 +1197,10 @@
   <dimension ref="A1:I72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E6" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="E34" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomRight" activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1214,20 +1217,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
     </row>
     <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
       <c r="H2" s="15"/>
       <c r="I2" s="1" t="s">
         <v>0</v>
@@ -1240,13 +1243,13 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="26"/>
+      <c r="C4" s="47"/>
       <c r="D4" s="4" t="s">
         <v>4</v>
       </c>
@@ -1256,9 +1259,9 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="27"/>
-      <c r="B5" s="27"/>
-      <c r="C5" s="28"/>
+      <c r="A5" s="48"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="49"/>
       <c r="D5" s="5" t="s">
         <v>6</v>
       </c>
@@ -1281,10 +1284,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="18"/>
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="50"/>
+      <c r="C7" s="43"/>
       <c r="D7" s="7">
         <v>1</v>
       </c>
@@ -1346,10 +1349,10 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="34" t="s">
+      <c r="A14" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="35"/>
+      <c r="B14" s="24"/>
       <c r="C14" s="10" t="s">
         <v>10</v>
       </c>
@@ -1359,31 +1362,31 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="36"/>
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="38"/>
+      <c r="A15" s="28"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="30"/>
     </row>
     <row r="16" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="18">
         <v>45999</v>
       </c>
-      <c r="B16" s="39" t="s">
+      <c r="B16" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="40"/>
+      <c r="C16" s="33"/>
       <c r="D16" s="7"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="18"/>
-      <c r="B17" s="41"/>
-      <c r="C17" s="42"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="35"/>
       <c r="D17" s="7"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="18"/>
-      <c r="B18" s="43"/>
-      <c r="C18" s="44"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="37"/>
       <c r="D18" s="7"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -1401,22 +1404,22 @@
       <c r="A20" s="17">
         <v>45999</v>
       </c>
-      <c r="B20" s="39" t="s">
+      <c r="B20" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="40"/>
+      <c r="C20" s="33"/>
       <c r="D20" s="6"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="18"/>
-      <c r="B21" s="41"/>
-      <c r="C21" s="42"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="35"/>
       <c r="D21" s="7"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="18"/>
-      <c r="B22" s="43"/>
-      <c r="C22" s="44"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="37"/>
       <c r="D22" s="7"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -1470,10 +1473,10 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="34" t="s">
+      <c r="A28" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="35"/>
+      <c r="B28" s="24"/>
       <c r="C28" s="10" t="s">
         <v>10</v>
       </c>
@@ -1483,15 +1486,15 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="36" t="s">
+      <c r="A29" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="B29" s="37"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="38"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="30"/>
     </row>
     <row r="30" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="45">
+      <c r="A30" s="31">
         <v>46006</v>
       </c>
       <c r="B30" s="19" t="s">
@@ -1504,20 +1507,20 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="18"/>
-      <c r="B31" s="30" t="s">
+      <c r="B31" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="C31" s="31"/>
+      <c r="C31" s="39"/>
       <c r="D31" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="18"/>
-      <c r="B32" s="32" t="s">
+      <c r="B32" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="C32" s="33"/>
+      <c r="C32" s="41"/>
       <c r="D32" s="7">
         <v>1</v>
       </c>
@@ -1620,10 +1623,10 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="34" t="s">
+      <c r="A42" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B42" s="35"/>
+      <c r="B42" s="24"/>
       <c r="C42" s="10" t="s">
         <v>10</v>
       </c>
@@ -1633,12 +1636,12 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="36" t="s">
+      <c r="A43" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B43" s="37"/>
-      <c r="C43" s="37"/>
-      <c r="D43" s="38"/>
+      <c r="B43" s="29"/>
+      <c r="C43" s="29"/>
+      <c r="D43" s="30"/>
     </row>
     <row r="44" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="18">
@@ -1688,7 +1691,7 @@
       </c>
       <c r="C48" s="20"/>
       <c r="D48" s="6">
-        <v>1.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -1698,7 +1701,7 @@
       </c>
       <c r="C49" s="22"/>
       <c r="D49" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -1715,22 +1718,30 @@
       </c>
       <c r="D51" s="8">
         <f>SUM(D48:D50)</f>
-        <v>2.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="17">
         <v>45663</v>
       </c>
-      <c r="B52" s="19"/>
+      <c r="B52" s="19" t="s">
+        <v>29</v>
+      </c>
       <c r="C52" s="20"/>
-      <c r="D52" s="6"/>
+      <c r="D52" s="6">
+        <v>2</v>
+      </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="18"/>
-      <c r="B53" s="21"/>
+      <c r="B53" s="21" t="s">
+        <v>34</v>
+      </c>
       <c r="C53" s="22"/>
-      <c r="D53" s="7"/>
+      <c r="D53" s="7">
+        <v>2</v>
+      </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="18"/>
@@ -1746,27 +1757,27 @@
       </c>
       <c r="D55" s="8">
         <f>SUM(D52:D54)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="34" t="s">
+      <c r="A56" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B56" s="35"/>
+      <c r="B56" s="24"/>
       <c r="C56" s="10" t="s">
         <v>10</v>
       </c>
       <c r="D56" s="11">
         <f>SUM(D47,D51,D55)</f>
-        <v>6.5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="46"/>
-      <c r="B57" s="47"/>
-      <c r="C57" s="47"/>
-      <c r="D57" s="48"/>
+      <c r="A57" s="25"/>
+      <c r="B57" s="26"/>
+      <c r="C57" s="26"/>
+      <c r="D57" s="27"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="18">
@@ -1862,10 +1873,10 @@
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="34" t="s">
+      <c r="A70" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B70" s="35"/>
+      <c r="B70" s="24"/>
       <c r="C70" s="10" t="s">
         <v>10</v>
       </c>
@@ -1880,24 +1891,53 @@
       </c>
       <c r="D72" s="9">
         <f>D14+D28+D42+D56+D70</f>
-        <v>27.5</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="A66:A69"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A58:A61"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="A62:A65"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B16:C18"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B20:C22"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
     <mergeCell ref="A56:B56"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A48:A51"/>
@@ -1908,48 +1948,19 @@
     <mergeCell ref="B52:C52"/>
     <mergeCell ref="B53:C53"/>
     <mergeCell ref="B54:C54"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="A44:A47"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B20:C22"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B16:C18"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B4:C5"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A58:A61"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="A62:A65"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="A66:A69"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="A70:B70"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:D13">
     <cfRule type="containsText" dxfId="11" priority="31" operator="containsText" text="Terminé">
@@ -2080,15 +2091,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100280ED870E36F6F4C976CEAC6988F82A5" ma:contentTypeVersion="37" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="3169f06de23f2334ced166a676265d3f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xmlns:ns3="5cbbe46b-cb1d-4e56-8c99-5e3dbfb293e5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="eab9665bb0af9cfdaba242b84d69e760" ns2:_="" ns3:_="">
     <xsd:import namespace="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea"/>
@@ -2525,6 +2527,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A574440-4762-4322-B305-C51AEF435DC1}">
   <ds:schemaRefs>
@@ -2537,14 +2548,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34A0F71E-9B9F-4628-8A94-D320BA80A1D3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA445AE9-3816-4E66-9DE6-AF42B0662460}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2561,4 +2564,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34A0F71E-9B9F-4628-8A94-D320BA80A1D3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/documentation/306_Journal_travail_ArcardiaBox_DA_SILVA_DIOGO.xlsx
+++ b/documentation/306_Journal_travail_ArcardiaBox_DA_SILVA_DIOGO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\306-DaSilva\306-project-groupe-2-3\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A749EFFA-DDC4-4F73-99B3-4ABA2942F518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D32E5C2-89B9-4808-8EDC-5242C2ABBFD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="38">
   <si>
     <t>Problème</t>
   </si>
@@ -167,6 +167,15 @@
   </si>
   <si>
     <t>création du script d'installation automatique</t>
+  </si>
+  <si>
+    <t>doc</t>
+  </si>
+  <si>
+    <t>Cette semaine j'ai principalement travaillé sur la compréhension du projet</t>
+  </si>
+  <si>
+    <t>Je pense avoir réalisé un travail utile, qui permet à d’autres personnes d’installer facilement Arcadiabox là où elles le souhaitent.</t>
   </si>
 </sst>
 </file>
@@ -278,7 +287,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -420,15 +429,6 @@
         <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -531,7 +531,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -571,6 +571,14 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -579,15 +587,55 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -595,7 +643,7 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -603,92 +651,44 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1197,10 +1197,10 @@
   <dimension ref="A1:I72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E34" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="E43" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="E53" sqref="E53"/>
+      <selection pane="bottomRight" activeCell="I50" sqref="I50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1217,20 +1217,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
     </row>
     <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
       <c r="H2" s="15"/>
       <c r="I2" s="1" t="s">
         <v>0</v>
@@ -1243,13 +1243,13 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="47"/>
+      <c r="C4" s="28"/>
       <c r="D4" s="4" t="s">
         <v>4</v>
       </c>
@@ -1259,9 +1259,9 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="48"/>
-      <c r="B5" s="48"/>
-      <c r="C5" s="49"/>
+      <c r="A5" s="29"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="30"/>
       <c r="D5" s="5" t="s">
         <v>6</v>
       </c>
@@ -1284,20 +1284,20 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="18"/>
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="43"/>
+      <c r="C7" s="22"/>
       <c r="D7" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="18"/>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="22"/>
+      <c r="C8" s="24"/>
       <c r="D8" s="7">
         <v>2</v>
       </c>
@@ -1310,7 +1310,7 @@
       </c>
       <c r="D9" s="8">
         <f>SUM(D6:D8)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1327,14 +1327,18 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="18"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="7"/>
+      <c r="B11" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="24"/>
+      <c r="D11" s="7">
+        <v>2</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="18"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="22"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="24"/>
       <c r="D12" s="7"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -1345,48 +1349,50 @@
       </c>
       <c r="D13" s="8">
         <f>SUM(D10:D12)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="24"/>
+      <c r="B14" s="37"/>
       <c r="C14" s="10" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="11">
         <f>SUM(D9,D13)</f>
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="28"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="30"/>
+      <c r="A15" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="40"/>
     </row>
     <row r="16" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="18">
         <v>45999</v>
       </c>
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="33"/>
+      <c r="C16" s="42"/>
       <c r="D16" s="7"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="18"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="35"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="44"/>
       <c r="D17" s="7"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="18"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="37"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="46"/>
       <c r="D18" s="7"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -1404,22 +1410,22 @@
       <c r="A20" s="17">
         <v>45999</v>
       </c>
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="33"/>
+      <c r="C20" s="42"/>
       <c r="D20" s="6"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="18"/>
-      <c r="B21" s="34"/>
-      <c r="C21" s="35"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="44"/>
       <c r="D21" s="7"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="18"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="37"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="46"/>
       <c r="D22" s="7"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -1447,18 +1453,18 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="18"/>
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="22"/>
+      <c r="C25" s="24"/>
       <c r="D25" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="18"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="22"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="24"/>
       <c r="D26" s="7"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -1473,10 +1479,10 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="23" t="s">
+      <c r="A28" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="24"/>
+      <c r="B28" s="37"/>
       <c r="C28" s="10" t="s">
         <v>10</v>
       </c>
@@ -1486,15 +1492,15 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="28" t="s">
+      <c r="A29" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="30"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="40"/>
     </row>
     <row r="30" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="31">
+      <c r="A30" s="47">
         <v>46006</v>
       </c>
       <c r="B30" s="19" t="s">
@@ -1507,20 +1513,20 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="18"/>
-      <c r="B31" s="38" t="s">
+      <c r="B31" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="C31" s="39"/>
+      <c r="C31" s="33"/>
       <c r="D31" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="18"/>
-      <c r="B32" s="40" t="s">
+      <c r="B32" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="C32" s="41"/>
+      <c r="C32" s="35"/>
       <c r="D32" s="7">
         <v>1</v>
       </c>
@@ -1550,20 +1556,20 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="18"/>
-      <c r="B35" s="21" t="s">
+      <c r="B35" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="22"/>
+      <c r="C35" s="24"/>
       <c r="D35" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="18"/>
-      <c r="B36" s="21" t="s">
+      <c r="B36" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C36" s="22"/>
+      <c r="C36" s="24"/>
       <c r="D36" s="7">
         <v>1</v>
       </c>
@@ -1576,7 +1582,7 @@
       </c>
       <c r="D37" s="8">
         <f>SUM(D34:D36)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1593,20 +1599,20 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="18"/>
-      <c r="B39" s="21" t="s">
+      <c r="B39" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="C39" s="22"/>
+      <c r="C39" s="24"/>
       <c r="D39" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="18"/>
-      <c r="B40" s="21" t="s">
+      <c r="B40" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="22"/>
+      <c r="C40" s="24"/>
       <c r="D40" s="7">
         <v>1</v>
       </c>
@@ -1619,33 +1625,33 @@
       </c>
       <c r="D41" s="8">
         <f>SUM(D38:D40)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="23" t="s">
+      <c r="A42" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B42" s="24"/>
+      <c r="B42" s="37"/>
       <c r="C42" s="10" t="s">
         <v>10</v>
       </c>
       <c r="D42" s="11">
         <f>SUM(D33,D37,D41)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="28" t="s">
+      <c r="A43" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="B43" s="29"/>
-      <c r="C43" s="29"/>
-      <c r="D43" s="30"/>
+      <c r="B43" s="39"/>
+      <c r="C43" s="39"/>
+      <c r="D43" s="40"/>
     </row>
     <row r="44" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="18">
-        <v>45662</v>
+        <v>46027</v>
       </c>
       <c r="B44" s="19" t="s">
         <v>28</v>
@@ -1657,18 +1663,18 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="18"/>
-      <c r="B45" s="21" t="s">
+      <c r="B45" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="C45" s="22"/>
+      <c r="C45" s="24"/>
       <c r="D45" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="18"/>
-      <c r="B46" s="21"/>
-      <c r="C46" s="22"/>
+      <c r="B46" s="23"/>
+      <c r="C46" s="24"/>
       <c r="D46" s="7"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -1684,7 +1690,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="17">
-        <v>45662</v>
+        <v>46027</v>
       </c>
       <c r="B48" s="19" t="s">
         <v>30</v>
@@ -1696,18 +1702,18 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="18"/>
-      <c r="B49" s="21" t="s">
+      <c r="B49" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C49" s="22"/>
+      <c r="C49" s="24"/>
       <c r="D49" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="18"/>
-      <c r="B50" s="21"/>
-      <c r="C50" s="22"/>
+      <c r="B50" s="23"/>
+      <c r="C50" s="24"/>
       <c r="D50" s="7"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
@@ -1723,7 +1729,7 @@
     </row>
     <row r="52" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="17">
-        <v>45663</v>
+        <v>46028</v>
       </c>
       <c r="B52" s="19" t="s">
         <v>29</v>
@@ -1735,18 +1741,18 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="18"/>
-      <c r="B53" s="21" t="s">
+      <c r="B53" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C53" s="22"/>
+      <c r="C53" s="24"/>
       <c r="D53" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="18"/>
-      <c r="B54" s="21"/>
-      <c r="C54" s="22"/>
+      <c r="B54" s="23"/>
+      <c r="C54" s="24"/>
       <c r="D54" s="7"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
@@ -1761,10 +1767,10 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="23" t="s">
+      <c r="A56" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B56" s="24"/>
+      <c r="B56" s="37"/>
       <c r="C56" s="10" t="s">
         <v>10</v>
       </c>
@@ -1774,29 +1780,31 @@
       </c>
     </row>
     <row r="57" spans="1:4" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="25"/>
-      <c r="B57" s="26"/>
-      <c r="C57" s="26"/>
-      <c r="D57" s="27"/>
+      <c r="A57" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="B57" s="49"/>
+      <c r="C57" s="49"/>
+      <c r="D57" s="50"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="18">
         <v>45669</v>
       </c>
-      <c r="B58" s="21"/>
-      <c r="C58" s="22"/>
+      <c r="B58" s="23"/>
+      <c r="C58" s="24"/>
       <c r="D58" s="7"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="18"/>
-      <c r="B59" s="21"/>
-      <c r="C59" s="22"/>
+      <c r="B59" s="23"/>
+      <c r="C59" s="24"/>
       <c r="D59" s="7"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="18"/>
-      <c r="B60" s="21"/>
-      <c r="C60" s="22"/>
+      <c r="B60" s="23"/>
+      <c r="C60" s="24"/>
       <c r="D60" s="7"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
@@ -1820,14 +1828,14 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="18"/>
-      <c r="B63" s="21"/>
-      <c r="C63" s="22"/>
+      <c r="B63" s="23"/>
+      <c r="C63" s="24"/>
       <c r="D63" s="7"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="18"/>
-      <c r="B64" s="21"/>
-      <c r="C64" s="22"/>
+      <c r="B64" s="23"/>
+      <c r="C64" s="24"/>
       <c r="D64" s="7"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
@@ -1851,14 +1859,14 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="18"/>
-      <c r="B67" s="21"/>
-      <c r="C67" s="22"/>
+      <c r="B67" s="23"/>
+      <c r="C67" s="24"/>
       <c r="D67" s="7"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="18"/>
-      <c r="B68" s="21"/>
-      <c r="C68" s="22"/>
+      <c r="B68" s="23"/>
+      <c r="C68" s="24"/>
       <c r="D68" s="7"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
@@ -1873,10 +1881,10 @@
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="23" t="s">
+      <c r="A70" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B70" s="24"/>
+      <c r="B70" s="37"/>
       <c r="C70" s="10" t="s">
         <v>10</v>
       </c>
@@ -1891,53 +1899,24 @@
       </c>
       <c r="D72" s="9">
         <f>D14+D28+D42+D56+D70</f>
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B4:C5"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B16:C18"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B20:C22"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="A44:A47"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="A66:A69"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A58:A61"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="A62:A65"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B62:C62"/>
     <mergeCell ref="A56:B56"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A48:A51"/>
@@ -1948,19 +1927,48 @@
     <mergeCell ref="B52:C52"/>
     <mergeCell ref="B53:C53"/>
     <mergeCell ref="B54:C54"/>
-    <mergeCell ref="A58:A61"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="A62:A65"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="A66:A69"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B20:C22"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B16:C18"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A2:D2"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:D13">
     <cfRule type="containsText" dxfId="11" priority="31" operator="containsText" text="Terminé">
@@ -2091,6 +2099,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100280ED870E36F6F4C976CEAC6988F82A5" ma:contentTypeVersion="37" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="3169f06de23f2334ced166a676265d3f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xmlns:ns3="5cbbe46b-cb1d-4e56-8c99-5e3dbfb293e5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="eab9665bb0af9cfdaba242b84d69e760" ns2:_="" ns3:_="">
     <xsd:import namespace="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea"/>
@@ -2527,15 +2544,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A574440-4762-4322-B305-C51AEF435DC1}">
   <ds:schemaRefs>
@@ -2548,6 +2556,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34A0F71E-9B9F-4628-8A94-D320BA80A1D3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA445AE9-3816-4E66-9DE6-AF42B0662460}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2564,12 +2580,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34A0F71E-9B9F-4628-8A94-D320BA80A1D3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/documentation/306_Journal_travail_ArcardiaBox_DA_SILVA_DIOGO.xlsx
+++ b/documentation/306_Journal_travail_ArcardiaBox_DA_SILVA_DIOGO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\306-DaSilva\306-project-groupe-2-3\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D32E5C2-89B9-4808-8EDC-5242C2ABBFD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82E779B8-8AB5-4D09-9942-80EF3F8ED349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="40">
   <si>
     <t>Problème</t>
   </si>
@@ -176,6 +176,12 @@
   </si>
   <si>
     <t>Je pense avoir réalisé un travail utile, qui permet à d’autres personnes d’installer facilement Arcadiabox là où elles le souhaitent.</t>
+  </si>
+  <si>
+    <t>mis à jour du repo sur la raspberry</t>
+  </si>
+  <si>
+    <t>tests</t>
   </si>
 </sst>
 </file>
@@ -571,6 +577,90 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -579,14 +669,6 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -613,82 +695,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1197,10 +1203,10 @@
   <dimension ref="A1:I72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E43" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="E51" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="I50" sqref="I50"/>
+      <selection pane="bottomRight" activeCell="B60" sqref="B60:C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1217,20 +1223,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
     </row>
     <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
       <c r="H2" s="15"/>
       <c r="I2" s="1" t="s">
         <v>0</v>
@@ -1243,13 +1249,13 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="28"/>
+      <c r="C4" s="47"/>
       <c r="D4" s="4" t="s">
         <v>4</v>
       </c>
@@ -1259,9 +1265,9 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="29"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="30"/>
+      <c r="A5" s="48"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="49"/>
       <c r="D5" s="5" t="s">
         <v>6</v>
       </c>
@@ -1284,20 +1290,20 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="18"/>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="22"/>
+      <c r="C7" s="43"/>
       <c r="D7" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="18"/>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="24"/>
+      <c r="C8" s="22"/>
       <c r="D8" s="7">
         <v>2</v>
       </c>
@@ -1327,18 +1333,18 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="18"/>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="24"/>
+      <c r="C11" s="22"/>
       <c r="D11" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="18"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="24"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="22"/>
       <c r="D12" s="7"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -1353,10 +1359,10 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="36" t="s">
+      <c r="A14" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="37"/>
+      <c r="B14" s="24"/>
       <c r="C14" s="10" t="s">
         <v>10</v>
       </c>
@@ -1366,33 +1372,33 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="38" t="s">
+      <c r="A15" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="40"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="30"/>
     </row>
     <row r="16" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="18">
         <v>45999</v>
       </c>
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="42"/>
+      <c r="C16" s="33"/>
       <c r="D16" s="7"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="18"/>
-      <c r="B17" s="43"/>
-      <c r="C17" s="44"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="35"/>
       <c r="D17" s="7"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="18"/>
-      <c r="B18" s="45"/>
-      <c r="C18" s="46"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="37"/>
       <c r="D18" s="7"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -1410,22 +1416,22 @@
       <c r="A20" s="17">
         <v>45999</v>
       </c>
-      <c r="B20" s="41" t="s">
+      <c r="B20" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="42"/>
+      <c r="C20" s="33"/>
       <c r="D20" s="6"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="18"/>
-      <c r="B21" s="43"/>
-      <c r="C21" s="44"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="35"/>
       <c r="D21" s="7"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="18"/>
-      <c r="B22" s="45"/>
-      <c r="C22" s="46"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="37"/>
       <c r="D22" s="7"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -1453,18 +1459,18 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="18"/>
-      <c r="B25" s="23" t="s">
+      <c r="B25" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="24"/>
+      <c r="C25" s="22"/>
       <c r="D25" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="18"/>
-      <c r="B26" s="23"/>
-      <c r="C26" s="24"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="22"/>
       <c r="D26" s="7"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -1479,10 +1485,10 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="36" t="s">
+      <c r="A28" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="37"/>
+      <c r="B28" s="24"/>
       <c r="C28" s="10" t="s">
         <v>10</v>
       </c>
@@ -1492,15 +1498,15 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="38" t="s">
+      <c r="A29" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="B29" s="39"/>
-      <c r="C29" s="39"/>
-      <c r="D29" s="40"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="30"/>
     </row>
     <row r="30" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="47">
+      <c r="A30" s="31">
         <v>46006</v>
       </c>
       <c r="B30" s="19" t="s">
@@ -1513,20 +1519,20 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="18"/>
-      <c r="B31" s="32" t="s">
+      <c r="B31" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="C31" s="33"/>
+      <c r="C31" s="39"/>
       <c r="D31" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="18"/>
-      <c r="B32" s="34" t="s">
+      <c r="B32" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="C32" s="35"/>
+      <c r="C32" s="41"/>
       <c r="D32" s="7">
         <v>1</v>
       </c>
@@ -1556,20 +1562,20 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="18"/>
-      <c r="B35" s="23" t="s">
+      <c r="B35" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="24"/>
+      <c r="C35" s="22"/>
       <c r="D35" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="18"/>
-      <c r="B36" s="23" t="s">
+      <c r="B36" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="C36" s="24"/>
+      <c r="C36" s="22"/>
       <c r="D36" s="7">
         <v>1</v>
       </c>
@@ -1599,20 +1605,20 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="18"/>
-      <c r="B39" s="23" t="s">
+      <c r="B39" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C39" s="24"/>
+      <c r="C39" s="22"/>
       <c r="D39" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="18"/>
-      <c r="B40" s="23" t="s">
+      <c r="B40" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="24"/>
+      <c r="C40" s="22"/>
       <c r="D40" s="7">
         <v>1</v>
       </c>
@@ -1629,10 +1635,10 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="36" t="s">
+      <c r="A42" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B42" s="37"/>
+      <c r="B42" s="24"/>
       <c r="C42" s="10" t="s">
         <v>10</v>
       </c>
@@ -1642,12 +1648,12 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="38" t="s">
+      <c r="A43" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B43" s="39"/>
-      <c r="C43" s="39"/>
-      <c r="D43" s="40"/>
+      <c r="B43" s="29"/>
+      <c r="C43" s="29"/>
+      <c r="D43" s="30"/>
     </row>
     <row r="44" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="18">
@@ -1663,18 +1669,18 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="18"/>
-      <c r="B45" s="23" t="s">
+      <c r="B45" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C45" s="24"/>
+      <c r="C45" s="22"/>
       <c r="D45" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="18"/>
-      <c r="B46" s="23"/>
-      <c r="C46" s="24"/>
+      <c r="B46" s="21"/>
+      <c r="C46" s="22"/>
       <c r="D46" s="7"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -1702,18 +1708,18 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="18"/>
-      <c r="B49" s="23" t="s">
+      <c r="B49" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="C49" s="24"/>
+      <c r="C49" s="22"/>
       <c r="D49" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="18"/>
-      <c r="B50" s="23"/>
-      <c r="C50" s="24"/>
+      <c r="B50" s="21"/>
+      <c r="C50" s="22"/>
       <c r="D50" s="7"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
@@ -1741,18 +1747,18 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="18"/>
-      <c r="B53" s="23" t="s">
+      <c r="B53" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C53" s="24"/>
+      <c r="C53" s="22"/>
       <c r="D53" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="18"/>
-      <c r="B54" s="23"/>
-      <c r="C54" s="24"/>
+      <c r="B54" s="21"/>
+      <c r="C54" s="22"/>
       <c r="D54" s="7"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
@@ -1767,10 +1773,10 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="36" t="s">
+      <c r="A56" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B56" s="37"/>
+      <c r="B56" s="24"/>
       <c r="C56" s="10" t="s">
         <v>10</v>
       </c>
@@ -1780,32 +1786,44 @@
       </c>
     </row>
     <row r="57" spans="1:4" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="48" t="s">
+      <c r="A57" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="B57" s="49"/>
-      <c r="C57" s="49"/>
-      <c r="D57" s="50"/>
+      <c r="B57" s="26"/>
+      <c r="C57" s="26"/>
+      <c r="D57" s="27"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="18">
         <v>45669</v>
       </c>
-      <c r="B58" s="23"/>
-      <c r="C58" s="24"/>
-      <c r="D58" s="7"/>
+      <c r="B58" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C58" s="22"/>
+      <c r="D58" s="7">
+        <v>3</v>
+      </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="18"/>
-      <c r="B59" s="23"/>
-      <c r="C59" s="24"/>
-      <c r="D59" s="7"/>
+      <c r="B59" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C59" s="22"/>
+      <c r="D59" s="7">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="18"/>
-      <c r="B60" s="23"/>
-      <c r="C60" s="24"/>
-      <c r="D60" s="7"/>
+      <c r="B60" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C60" s="22"/>
+      <c r="D60" s="7">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="18"/>
@@ -1815,7 +1833,7 @@
       </c>
       <c r="D61" s="8">
         <f>SUM(D58:D60)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
@@ -1828,14 +1846,14 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="18"/>
-      <c r="B63" s="23"/>
-      <c r="C63" s="24"/>
+      <c r="B63" s="21"/>
+      <c r="C63" s="22"/>
       <c r="D63" s="7"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="18"/>
-      <c r="B64" s="23"/>
-      <c r="C64" s="24"/>
+      <c r="B64" s="21"/>
+      <c r="C64" s="22"/>
       <c r="D64" s="7"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
@@ -1859,14 +1877,14 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="18"/>
-      <c r="B67" s="23"/>
-      <c r="C67" s="24"/>
+      <c r="B67" s="21"/>
+      <c r="C67" s="22"/>
       <c r="D67" s="7"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="18"/>
-      <c r="B68" s="23"/>
-      <c r="C68" s="24"/>
+      <c r="B68" s="21"/>
+      <c r="C68" s="22"/>
       <c r="D68" s="7"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
@@ -1881,16 +1899,16 @@
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="36" t="s">
+      <c r="A70" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B70" s="37"/>
+      <c r="B70" s="24"/>
       <c r="C70" s="10" t="s">
         <v>10</v>
       </c>
       <c r="D70" s="11">
         <f>SUM(D61,D65,D69)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
@@ -1899,24 +1917,53 @@
       </c>
       <c r="D72" s="9">
         <f>D14+D28+D42+D56+D70</f>
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="A66:A69"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A58:A61"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="A62:A65"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B16:C18"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B20:C22"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
     <mergeCell ref="A56:B56"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A48:A51"/>
@@ -1927,48 +1974,19 @@
     <mergeCell ref="B52:C52"/>
     <mergeCell ref="B53:C53"/>
     <mergeCell ref="B54:C54"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="A44:A47"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B20:C22"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B16:C18"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B4:C5"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A58:A61"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="A62:A65"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="A66:A69"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="A70:B70"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:D13">
     <cfRule type="containsText" dxfId="11" priority="31" operator="containsText" text="Terminé">
@@ -2099,15 +2117,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100280ED870E36F6F4C976CEAC6988F82A5" ma:contentTypeVersion="37" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="3169f06de23f2334ced166a676265d3f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xmlns:ns3="5cbbe46b-cb1d-4e56-8c99-5e3dbfb293e5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="eab9665bb0af9cfdaba242b84d69e760" ns2:_="" ns3:_="">
     <xsd:import namespace="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea"/>
@@ -2544,6 +2553,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A574440-4762-4322-B305-C51AEF435DC1}">
   <ds:schemaRefs>
@@ -2556,14 +2574,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34A0F71E-9B9F-4628-8A94-D320BA80A1D3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA445AE9-3816-4E66-9DE6-AF42B0662460}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2580,4 +2590,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34A0F71E-9B9F-4628-8A94-D320BA80A1D3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/documentation/306_Journal_travail_ArcardiaBox_DA_SILVA_DIOGO.xlsx
+++ b/documentation/306_Journal_travail_ArcardiaBox_DA_SILVA_DIOGO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\306-DaSilva\306-project-groupe-2-3\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82E779B8-8AB5-4D09-9942-80EF3F8ED349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CCC14A9-0A1F-4C9E-BBD7-CD4947DAF5A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="42">
   <si>
     <t>Problème</t>
   </si>
@@ -182,6 +182,12 @@
   </si>
   <si>
     <t>tests</t>
+  </si>
+  <si>
+    <t>présentation</t>
+  </si>
+  <si>
+    <t>entrainement présentation</t>
   </si>
 </sst>
 </file>
@@ -577,6 +583,14 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -585,6 +599,50 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -594,6 +652,46 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -603,98 +701,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1203,10 +1209,10 @@
   <dimension ref="A1:I72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E51" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="E57" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="B60" sqref="B60:C60"/>
+      <selection pane="bottomRight" activeCell="E64" sqref="E64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1223,20 +1229,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
     </row>
     <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
       <c r="H2" s="15"/>
       <c r="I2" s="1" t="s">
         <v>0</v>
@@ -1249,13 +1255,13 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="47"/>
+      <c r="C4" s="28"/>
       <c r="D4" s="4" t="s">
         <v>4</v>
       </c>
@@ -1265,9 +1271,9 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="48"/>
-      <c r="B5" s="48"/>
-      <c r="C5" s="49"/>
+      <c r="A5" s="29"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="30"/>
       <c r="D5" s="5" t="s">
         <v>6</v>
       </c>
@@ -1290,20 +1296,20 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="18"/>
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="43"/>
+      <c r="C7" s="22"/>
       <c r="D7" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="18"/>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="22"/>
+      <c r="C8" s="24"/>
       <c r="D8" s="7">
         <v>2</v>
       </c>
@@ -1333,18 +1339,18 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="18"/>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="22"/>
+      <c r="C11" s="24"/>
       <c r="D11" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="18"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="22"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="24"/>
       <c r="D12" s="7"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -1359,10 +1365,10 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="24"/>
+      <c r="B14" s="37"/>
       <c r="C14" s="10" t="s">
         <v>10</v>
       </c>
@@ -1372,33 +1378,33 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="28" t="s">
+      <c r="A15" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="30"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="40"/>
     </row>
     <row r="16" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="18">
         <v>45999</v>
       </c>
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="33"/>
+      <c r="C16" s="42"/>
       <c r="D16" s="7"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="18"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="35"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="44"/>
       <c r="D17" s="7"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="18"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="37"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="46"/>
       <c r="D18" s="7"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -1416,22 +1422,22 @@
       <c r="A20" s="17">
         <v>45999</v>
       </c>
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="33"/>
+      <c r="C20" s="42"/>
       <c r="D20" s="6"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="18"/>
-      <c r="B21" s="34"/>
-      <c r="C21" s="35"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="44"/>
       <c r="D21" s="7"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="18"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="37"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="46"/>
       <c r="D22" s="7"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -1459,18 +1465,18 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="18"/>
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="22"/>
+      <c r="C25" s="24"/>
       <c r="D25" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="18"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="22"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="24"/>
       <c r="D26" s="7"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -1485,10 +1491,10 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="23" t="s">
+      <c r="A28" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="24"/>
+      <c r="B28" s="37"/>
       <c r="C28" s="10" t="s">
         <v>10</v>
       </c>
@@ -1498,15 +1504,15 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="28" t="s">
+      <c r="A29" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="30"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="40"/>
     </row>
     <row r="30" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="31">
+      <c r="A30" s="47">
         <v>46006</v>
       </c>
       <c r="B30" s="19" t="s">
@@ -1519,20 +1525,20 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="18"/>
-      <c r="B31" s="38" t="s">
+      <c r="B31" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="C31" s="39"/>
+      <c r="C31" s="33"/>
       <c r="D31" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="18"/>
-      <c r="B32" s="40" t="s">
+      <c r="B32" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="C32" s="41"/>
+      <c r="C32" s="35"/>
       <c r="D32" s="7">
         <v>1</v>
       </c>
@@ -1562,20 +1568,20 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="18"/>
-      <c r="B35" s="21" t="s">
+      <c r="B35" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="22"/>
+      <c r="C35" s="24"/>
       <c r="D35" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="18"/>
-      <c r="B36" s="21" t="s">
+      <c r="B36" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C36" s="22"/>
+      <c r="C36" s="24"/>
       <c r="D36" s="7">
         <v>1</v>
       </c>
@@ -1605,20 +1611,20 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="18"/>
-      <c r="B39" s="21" t="s">
+      <c r="B39" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="C39" s="22"/>
+      <c r="C39" s="24"/>
       <c r="D39" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="18"/>
-      <c r="B40" s="21" t="s">
+      <c r="B40" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="22"/>
+      <c r="C40" s="24"/>
       <c r="D40" s="7">
         <v>1</v>
       </c>
@@ -1635,10 +1641,10 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="23" t="s">
+      <c r="A42" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B42" s="24"/>
+      <c r="B42" s="37"/>
       <c r="C42" s="10" t="s">
         <v>10</v>
       </c>
@@ -1648,12 +1654,12 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="28" t="s">
+      <c r="A43" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="B43" s="29"/>
-      <c r="C43" s="29"/>
-      <c r="D43" s="30"/>
+      <c r="B43" s="39"/>
+      <c r="C43" s="39"/>
+      <c r="D43" s="40"/>
     </row>
     <row r="44" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="18">
@@ -1669,18 +1675,18 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="18"/>
-      <c r="B45" s="21" t="s">
+      <c r="B45" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="C45" s="22"/>
+      <c r="C45" s="24"/>
       <c r="D45" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="18"/>
-      <c r="B46" s="21"/>
-      <c r="C46" s="22"/>
+      <c r="B46" s="23"/>
+      <c r="C46" s="24"/>
       <c r="D46" s="7"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -1708,18 +1714,18 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="18"/>
-      <c r="B49" s="21" t="s">
+      <c r="B49" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C49" s="22"/>
+      <c r="C49" s="24"/>
       <c r="D49" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="18"/>
-      <c r="B50" s="21"/>
-      <c r="C50" s="22"/>
+      <c r="B50" s="23"/>
+      <c r="C50" s="24"/>
       <c r="D50" s="7"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
@@ -1747,18 +1753,18 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="18"/>
-      <c r="B53" s="21" t="s">
+      <c r="B53" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C53" s="22"/>
+      <c r="C53" s="24"/>
       <c r="D53" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="18"/>
-      <c r="B54" s="21"/>
-      <c r="C54" s="22"/>
+      <c r="B54" s="23"/>
+      <c r="C54" s="24"/>
       <c r="D54" s="7"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
@@ -1773,10 +1779,10 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="23" t="s">
+      <c r="A56" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B56" s="24"/>
+      <c r="B56" s="37"/>
       <c r="C56" s="10" t="s">
         <v>10</v>
       </c>
@@ -1786,41 +1792,41 @@
       </c>
     </row>
     <row r="57" spans="1:4" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="25" t="s">
+      <c r="A57" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="B57" s="26"/>
-      <c r="C57" s="26"/>
-      <c r="D57" s="27"/>
+      <c r="B57" s="49"/>
+      <c r="C57" s="49"/>
+      <c r="D57" s="50"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="18">
         <v>45669</v>
       </c>
-      <c r="B58" s="21" t="s">
+      <c r="B58" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="C58" s="22"/>
+      <c r="C58" s="24"/>
       <c r="D58" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="18"/>
-      <c r="B59" s="21" t="s">
+      <c r="B59" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C59" s="22"/>
+      <c r="C59" s="24"/>
       <c r="D59" s="7">
         <v>0.5</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="18"/>
-      <c r="B60" s="21" t="s">
+      <c r="B60" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="C60" s="22"/>
+      <c r="C60" s="24"/>
       <c r="D60" s="7">
         <v>0.5</v>
       </c>
@@ -1840,20 +1846,28 @@
       <c r="A62" s="17">
         <v>45669</v>
       </c>
-      <c r="B62" s="19"/>
+      <c r="B62" s="19" t="s">
+        <v>25</v>
+      </c>
       <c r="C62" s="20"/>
-      <c r="D62" s="6"/>
+      <c r="D62" s="6">
+        <v>3</v>
+      </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="18"/>
-      <c r="B63" s="21"/>
-      <c r="C63" s="22"/>
-      <c r="D63" s="7"/>
+      <c r="B63" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="C63" s="24"/>
+      <c r="D63" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="18"/>
-      <c r="B64" s="21"/>
-      <c r="C64" s="22"/>
+      <c r="B64" s="23"/>
+      <c r="C64" s="24"/>
       <c r="D64" s="7"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
@@ -1864,27 +1878,31 @@
       </c>
       <c r="D65" s="8">
         <f>SUM(D62:D64)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="17">
         <v>45670</v>
       </c>
-      <c r="B66" s="19"/>
+      <c r="B66" s="19" t="s">
+        <v>40</v>
+      </c>
       <c r="C66" s="20"/>
-      <c r="D66" s="6"/>
+      <c r="D66" s="6">
+        <v>4</v>
+      </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="18"/>
-      <c r="B67" s="21"/>
-      <c r="C67" s="22"/>
+      <c r="B67" s="23"/>
+      <c r="C67" s="24"/>
       <c r="D67" s="7"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="18"/>
-      <c r="B68" s="21"/>
-      <c r="C68" s="22"/>
+      <c r="B68" s="23"/>
+      <c r="C68" s="24"/>
       <c r="D68" s="7"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
@@ -1895,20 +1913,20 @@
       </c>
       <c r="D69" s="8">
         <f>SUM(D66:D68)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="23" t="s">
+      <c r="A70" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B70" s="24"/>
+      <c r="B70" s="37"/>
       <c r="C70" s="10" t="s">
         <v>10</v>
       </c>
       <c r="D70" s="11">
         <f>SUM(D61,D65,D69)</f>
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
@@ -1917,53 +1935,24 @@
       </c>
       <c r="D72" s="9">
         <f>D14+D28+D42+D56+D70</f>
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B4:C5"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B16:C18"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B20:C22"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A30:A33"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="A44:A47"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="A66:A69"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A58:A61"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="A62:A65"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B62:C62"/>
     <mergeCell ref="A56:B56"/>
     <mergeCell ref="A57:D57"/>
     <mergeCell ref="A48:A51"/>
@@ -1974,19 +1963,48 @@
     <mergeCell ref="B52:C52"/>
     <mergeCell ref="B53:C53"/>
     <mergeCell ref="B54:C54"/>
-    <mergeCell ref="A58:A61"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="A62:A65"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="A66:A69"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A30:A33"/>
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B20:C22"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B16:C18"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B4:C5"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A2:D2"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:D13">
     <cfRule type="containsText" dxfId="11" priority="31" operator="containsText" text="Terminé">
@@ -2117,6 +2135,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100280ED870E36F6F4C976CEAC6988F82A5" ma:contentTypeVersion="37" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="3169f06de23f2334ced166a676265d3f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea" xmlns:ns3="5cbbe46b-cb1d-4e56-8c99-5e3dbfb293e5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="eab9665bb0af9cfdaba242b84d69e760" ns2:_="" ns3:_="">
     <xsd:import namespace="32d4d717-cd3a-4b3d-8168-24cfd96cd6ea"/>
@@ -2553,15 +2580,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A574440-4762-4322-B305-C51AEF435DC1}">
   <ds:schemaRefs>
@@ -2574,6 +2592,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34A0F71E-9B9F-4628-8A94-D320BA80A1D3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA445AE9-3816-4E66-9DE6-AF42B0662460}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2590,12 +2616,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34A0F71E-9B9F-4628-8A94-D320BA80A1D3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>